--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_803.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_803.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32987-d268604-Reviews-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Travelodge-By-Wyndham-Rosemead.h913760.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_803.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_803.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,421 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r571944178-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>32987</t>
+  </si>
+  <si>
+    <t>268604</t>
+  </si>
+  <si>
+    <t>571944178</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r562812895-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>562812895</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r558845302-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>558845302</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r550925578-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>550925578</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Good location and remodeled room!!!</t>
+  </si>
+  <si>
+    <t>Location is good, ~30mins from Universal StudiosGot remodeled room (nice and clean)NOTE:1. Do not take room near road/highway - sound it too much at night (my wife could not sleep), otherwise, everything is good2. Breakfast - do not expect more, coffee and some cookies/biscuits for togo (that is also Ok for me since I am not paying too much $ for stay)</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r546372153-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>546372153</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r538516880-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>538516880</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Nice and new!</t>
+  </si>
+  <si>
+    <t>I noticed when I got there that they're doing lots of renovations, so the room we had was all new stuff. They didn't have the ice machine up and working yet, but i'm sure when it does and all the renovations are completed, anyone who stays there will enjoy it.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r445636864-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>445636864</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>The least of them all</t>
+  </si>
+  <si>
+    <t>I've stayed in many Rodeway Inn's in many parts of the US and I think this particular one sadly sits at the bottom. Yes, it is cheap and budget friendly but the rooms aren't even clean at 80%. We booked 3 rooms as we are a big group and not one of these rooms were impressive at all. I've trusted the chain for a long time because I've had a great unexpected experience with the little money I pay i.e. Clean rooms everyday, no lingering food smell, friendly staff, a basic pantry that is actually stocked and ICE. But this Rodeway inn did not fulfill.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r419654004-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>419654004</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Great place to stretch your dollar and legs</t>
+  </si>
+  <si>
+    <t>When I vacation I don't like to spend an excessive amount of money on the hotel. I think it's unnecessary because I don't spend lots of time in a hotel. I spend most of my time sightseeing and exploring the city.This place is perfect for my "don't spend lots of your vacation budget on the hotel" vacations. My room was clean and spacious. An added bonus was a microwave and fridge in my room. These amenities helped me save money on meals because I used them to cook after grocery shopping.The staff was nice and professional.The free breakfast is nothing special at all. But hey, do as I did and cook your own meals in your room.Parking is tight. I had to park a block away in the surrounding neighborhood. However, my car was untouched in the morning. It's a quiet and safe neighborhood.Pick this hotel if you want to save money.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>When I vacation I don't like to spend an excessive amount of money on the hotel. I think it's unnecessary because I don't spend lots of time in a hotel. I spend most of my time sightseeing and exploring the city.This place is perfect for my "don't spend lots of your vacation budget on the hotel" vacations. My room was clean and spacious. An added bonus was a microwave and fridge in my room. These amenities helped me save money on meals because I used them to cook after grocery shopping.The staff was nice and professional.The free breakfast is nothing special at all. But hey, do as I did and cook your own meals in your room.Parking is tight. I had to park a block away in the surrounding neighborhood. However, my car was untouched in the morning. It's a quiet and safe neighborhood.Pick this hotel if you want to save money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r384733009-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>384733009</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Breakfast is a joke!  NO ice!</t>
+  </si>
+  <si>
+    <t>Breakfast is sweet rolls and orange juice, and is not available until 7:30.  There are no coffee makers in the rooms, and coffee is not available until 7:30.  There is NO ice, none.  The rooms are nice enough, with comfy bed and good A/C.  Rooms seem to be clean, but there are ants in the bathroom.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r322729398-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>322729398</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Fantastic stay</t>
+  </si>
+  <si>
+    <t>I was very pleasantly surprised when we arrived to this destination. Check in was fast and easy. The parking lot was clean and secure. At night the parking lot has bright lights and cameras so your car is safe. The room was very big, clean and smelled fresh.We did find  thick dust on the top of the closet area and the fridge. The bathroom had a walk-in shower, nice size sink and a window.  The kitchen area you could tell had been used several times, but was also clean and had a full size fridge, window, microwave and small 2 cooktops. We didn't need to use that. You can see it has been updated. We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I was very pleasantly surprised when we arrived to this destination. Check in was fast and easy. The parking lot was clean and secure. At night the parking lot has bright lights and cameras so your car is safe. The room was very big, clean and smelled fresh.We did find  thick dust on the top of the closet area and the fridge. The bathroom had a walk-in shower, nice size sink and a window.  The kitchen area you could tell had been used several times, but was also clean and had a full size fridge, window, microwave and small 2 cooktops. We didn't need to use that. You can see it has been updated. We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r299912906-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>299912906</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Look Elsewhere!!!</t>
+  </si>
+  <si>
+    <t>We have regularly stayed at other hotels within the Choice Group, so presumed that this hotel would follow the trend of a reasonably priced, good quality business. We couldn't have been more wrong. 
+Whilst the bed was clean and comfortable, the rest of our experience was soured by a dirty bathroom that smelled awful, most of the flat surfaces were also dirty, and in very poor repair. The main blinds in the bedroom were ok, but those in the bathroom and walk in wardrobe were broken and wouldn't close! I attempted to close the wardrobe room's blind, and was instantly covered in a greasy dust, that would have marked my clothing if it had come into contact. 
+The bathroom window was open when we arrived, and closing it resulted in the whole unit becoming detached, and falling out of its rail, requiring it be caught before falling to the floor!
+The "Continental Breakfast" option was limited to a cardboard box situated in the hotel's check in desk / office a very small cubicle (3' x 6' or so) and a bottle of orange juice placed next to some plastic mugs on the side, with nowhere provided to eat or drink any of it other than your car (when leaving) or taken back to your room!
+The staff, though pleasant  enough, were difficult to understand, and appeared from a back room (presumably their dwelling was attached to the check in desk?)...We have regularly stayed at other hotels within the Choice Group, so presumed that this hotel would follow the trend of a reasonably priced, good quality business. We couldn't have been more wrong. Whilst the bed was clean and comfortable, the rest of our experience was soured by a dirty bathroom that smelled awful, most of the flat surfaces were also dirty, and in very poor repair. The main blinds in the bedroom were ok, but those in the bathroom and walk in wardrobe were broken and wouldn't close! I attempted to close the wardrobe room's blind, and was instantly covered in a greasy dust, that would have marked my clothing if it had come into contact. The bathroom window was open when we arrived, and closing it resulted in the whole unit becoming detached, and falling out of its rail, requiring it be caught before falling to the floor!The "Continental Breakfast" option was limited to a cardboard box situated in the hotel's check in desk / office a very small cubicle (3' x 6' or so) and a bottle of orange juice placed next to some plastic mugs on the side, with nowhere provided to eat or drink any of it other than your car (when leaving) or taken back to your room!The staff, though pleasant  enough, were difficult to understand, and appeared from a back room (presumably their dwelling was attached to the check in desk?) for only long enough to carry out the task required at the time! The room's electrical fuse board had been painted (presumably each time the walls had been redecorated?) and the MCB's would be unusable in the event of an electrical problem!I don't consider myself to be a snob, but the photographs taken to advertise this property were taken very carefully so as to conceal the nature of the surrounding buildings, which were in very poor repair, in a run down part of the area! Travellers from afar, with no knowledge of this area would be led to believe the building was much better situated than it was!I have taken photographs to document our concerns, and was considering taking matters further upon our return to the UK. This particular hotel does not reflect the usual high standards we have come to expect from this group, and if visiting this part of L.A. Again, we would look elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We have regularly stayed at other hotels within the Choice Group, so presumed that this hotel would follow the trend of a reasonably priced, good quality business. We couldn't have been more wrong. 
+Whilst the bed was clean and comfortable, the rest of our experience was soured by a dirty bathroom that smelled awful, most of the flat surfaces were also dirty, and in very poor repair. The main blinds in the bedroom were ok, but those in the bathroom and walk in wardrobe were broken and wouldn't close! I attempted to close the wardrobe room's blind, and was instantly covered in a greasy dust, that would have marked my clothing if it had come into contact. 
+The bathroom window was open when we arrived, and closing it resulted in the whole unit becoming detached, and falling out of its rail, requiring it be caught before falling to the floor!
+The "Continental Breakfast" option was limited to a cardboard box situated in the hotel's check in desk / office a very small cubicle (3' x 6' or so) and a bottle of orange juice placed next to some plastic mugs on the side, with nowhere provided to eat or drink any of it other than your car (when leaving) or taken back to your room!
+The staff, though pleasant  enough, were difficult to understand, and appeared from a back room (presumably their dwelling was attached to the check in desk?)...We have regularly stayed at other hotels within the Choice Group, so presumed that this hotel would follow the trend of a reasonably priced, good quality business. We couldn't have been more wrong. Whilst the bed was clean and comfortable, the rest of our experience was soured by a dirty bathroom that smelled awful, most of the flat surfaces were also dirty, and in very poor repair. The main blinds in the bedroom were ok, but those in the bathroom and walk in wardrobe were broken and wouldn't close! I attempted to close the wardrobe room's blind, and was instantly covered in a greasy dust, that would have marked my clothing if it had come into contact. The bathroom window was open when we arrived, and closing it resulted in the whole unit becoming detached, and falling out of its rail, requiring it be caught before falling to the floor!The "Continental Breakfast" option was limited to a cardboard box situated in the hotel's check in desk / office a very small cubicle (3' x 6' or so) and a bottle of orange juice placed next to some plastic mugs on the side, with nowhere provided to eat or drink any of it other than your car (when leaving) or taken back to your room!The staff, though pleasant  enough, were difficult to understand, and appeared from a back room (presumably their dwelling was attached to the check in desk?) for only long enough to carry out the task required at the time! The room's electrical fuse board had been painted (presumably each time the walls had been redecorated?) and the MCB's would be unusable in the event of an electrical problem!I don't consider myself to be a snob, but the photographs taken to advertise this property were taken very carefully so as to conceal the nature of the surrounding buildings, which were in very poor repair, in a run down part of the area! Travellers from afar, with no knowledge of this area would be led to believe the building was much better situated than it was!I have taken photographs to document our concerns, and was considering taking matters further upon our return to the UK. This particular hotel does not reflect the usual high standards we have come to expect from this group, and if visiting this part of L.A. Again, we would look elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r297332503-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>297332503</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Nice &amp; Clean</t>
+  </si>
+  <si>
+    <t>We just moved here recently from DC and were staying here while we were looking for  an apartment.We were really impressed how cleaned the room was. The room had a microwave and a mini fridge. That was a big plus for us because we were on a budget and didn't want to keep eating out. I believe the motel is managed by the owners and is a family operated motel. Anyways, the front desk staff were really nice and accommodating. We were looking for a motel in Pasadena area however for the same price and only 10-15 mins south, you can get much more for your money. We were glad we stayed here.If we have friends or family in town looking for place to stay, we will definitely recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>We just moved here recently from DC and were staying here while we were looking for  an apartment.We were really impressed how cleaned the room was. The room had a microwave and a mini fridge. That was a big plus for us because we were on a budget and didn't want to keep eating out. I believe the motel is managed by the owners and is a family operated motel. Anyways, the front desk staff were really nice and accommodating. We were looking for a motel in Pasadena area however for the same price and only 10-15 mins south, you can get much more for your money. We were glad we stayed here.If we have friends or family in town looking for place to stay, we will definitely recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r208124750-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>208124750</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Friday, May 30th 2014, room 218, air conditioner is not cooling, refrigerator is not working, no lights around bed. Not a very good evening. Rather uncomfortable. Mattress has indentation in middle, may be years old, too soft for me. I won't return. Other hotels/motels offer better value, operating appliances at comparable price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r205696310-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>205696310</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>The price is good, that's all I can say.</t>
+  </si>
+  <si>
+    <t>Booked this motel through Priceline and didn't which one I actually booked until I paid for it.  It was only $51 for a Friday night's stay, which is a very good deal.  When I got to the motel, it was late and I had to wait for someone to attend to me.  The room was spacious, but it was old.  There was a sleeper sofa in the corner but the dresser was blocking it, so you couldn't really open the bed at all.  The blinds was dirty, the string and the rod needed to open and close the blinds were missing.There are always people talking outside.They claim to provide breakfast, but it was just a pot of coffee and some bearclaws or danish from Costco.  Overall, if you're just looking for a bargain room for the night, this is the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Booked this motel through Priceline and didn't which one I actually booked until I paid for it.  It was only $51 for a Friday night's stay, which is a very good deal.  When I got to the motel, it was late and I had to wait for someone to attend to me.  The room was spacious, but it was old.  There was a sleeper sofa in the corner but the dresser was blocking it, so you couldn't really open the bed at all.  The blinds was dirty, the string and the rod needed to open and close the blinds were missing.There are always people talking outside.They claim to provide breakfast, but it was just a pot of coffee and some bearclaws or danish from Costco.  Overall, if you're just looking for a bargain room for the night, this is the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r202526054-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>202526054</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I should have done my research more on this one as it was a last minute booking. We had three nights booked but left after one. The room was big but it was dirty and the toilet was literally black. The lock on the door was broken also which was a worry, especially as there were often people hanging around the car park. We paid for breakfast but was told they didn't provide it. We did try and get a refund but Rodeway were really unaccomodating. I'd avoid this one unless you're in Rosemead for a reason.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r177323537-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>177323537</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Not clean and no wifi.</t>
+  </si>
+  <si>
+    <t>The owner is very friendly but never admits that they have a wifi problem. Its always working as per him but seldom does, as I have had to stay here several times. Its noisy at night as people talk on their cell phones at night and smoke in the outside corridor. The sheets on the bed do not fit so by midnight you are jumping around to avoid the filthy matress due to the bedcover getting crumpled up on one side. They have a big kitchen area in the room but housekeeping does not clean it. I do not think they ever clean the filters on their loud A/Cs and your allergys can really flare up after spending time in the room with the A/C on. The room carpet and chairs are stained and filthy. Stay here only as a last resort!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>The owner is very friendly but never admits that they have a wifi problem. Its always working as per him but seldom does, as I have had to stay here several times. Its noisy at night as people talk on their cell phones at night and smoke in the outside corridor. The sheets on the bed do not fit so by midnight you are jumping around to avoid the filthy matress due to the bedcover getting crumpled up on one side. They have a big kitchen area in the room but housekeeping does not clean it. I do not think they ever clean the filters on their loud A/Cs and your allergys can really flare up after spending time in the room with the A/C on. The room carpet and chairs are stained and filthy. Stay here only as a last resort!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r164709050-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>164709050</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Just a dump</t>
+  </si>
+  <si>
+    <t>There was hair in my bed that wasn't mine. The bathroom was dirty. The desk boy was pleasant enough but lied to me. Air conditioners are right over the bed thus very loud for sleeping if you need it on. My room was on the road so sleeping with the window open was LOUD ! The place is only 3 miles from Motel 6 so stay there if you have to be in the area. The continental breakfast consists of crummy sweet rolls wrapped in plastic and bad coffee. There is TV but only a dozen or so channels. The WI-FI works OK.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r163683072-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>163683072</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>overnight stop on way to airport</t>
+  </si>
+  <si>
+    <t>adequate for overnight stay.  check in a bit slow, but room clean, bed linen soft, massive shower with good pressure so that was a pleasant surprise.  wi-fi speed excellent one of the quickest we have experienced. coffee and a pastry in the morning - did the job for us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r120998149-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>120998149</t>
+  </si>
+  <si>
+    <t>11/24/2011</t>
+  </si>
+  <si>
+    <t>Weird experience..</t>
+  </si>
+  <si>
+    <t>I only took this place after reading the fairly good reviews. The price is right for 2 a star hotel. The location in terms of my business meeting were OK. Please note for me it was cheaper to use thier website than booking live directly or expedia, etc., e.g., I called the hotel directly and the man that answered said he did not have any King non smoking rooms available, only Queen and at a higher price than their own website. Booked via their website a King non smoke and it was less $$. 
+Requested a king non smoke upstairs room, no problem. The problem was two fold, first of all: the noise, not sure if it was bad timing/luck or just loud inconsiderate guests. They even gave me a rear of the property room #231, far and away from the busy Del Mar Blvd. Thought to myself " upstairs, rear of property = good nights sleep." It was anything but, until almost midnight, people were out on the 2nd floor walkway talking to others via their cell phone and discovered we were all invited to their conversations, even the paper thin walls were in need of some good R rated insulation. Then it gets better. Started to notice the cigarette smoke begin to waft through the air and under my closed door. Why bother asking or having a smoke free room when you get to share cigarettes with the...I only took this place after reading the fairly good reviews. The price is right for 2 a star hotel. The location in terms of my business meeting were OK. Please note for me it was cheaper to use thier website than booking live directly or expedia, etc., e.g., I called the hotel directly and the man that answered said he did not have any King non smoking rooms available, only Queen and at a higher price than their own website. Booked via their website a King non smoke and it was less $$. Requested a king non smoke upstairs room, no problem. The problem was two fold, first of all: the noise, not sure if it was bad timing/luck or just loud inconsiderate guests. They even gave me a rear of the property room #231, far and away from the busy Del Mar Blvd. Thought to myself " upstairs, rear of property = good nights sleep." It was anything but, until almost midnight, people were out on the 2nd floor walkway talking to others via their cell phone and discovered we were all invited to their conversations, even the paper thin walls were in need of some good R rated insulation. Then it gets better. Started to notice the cigarette smoke begin to waft through the air and under my closed door. Why bother asking or having a smoke free room when you get to share cigarettes with the other outside-your-room guests? The room itself looks like it has been upgraded albeit pretty shabby workmanship, it reminded of some of places I have stayed at in Mexico where I just needed a bed and shower because I was fishing. Honest to God... there was half of the shower head in the shower and did not notice until I went for my 6AM shower. Had to be rather creative to get wet and rinse off. I truly also hope that it was my imagination adn felt something in the middle of the night on my neck.. not sure. In all fairness, for the price and perhaps as mentioned maybe my bad luck/timing, I may give them one more chance, but their are other options. On a final note.. the check in gal said hot coffee and pastries would be availble at 6AM, was there at 6:45AM and still nothing. Checked out and headed to Starbucks.. kind of the final insult.   : (MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>eaver08, General Manager at Travelodge by Wyndham Rosemead, responded to this reviewResponded December 14, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2011</t>
+  </si>
+  <si>
+    <t>I only took this place after reading the fairly good reviews. The price is right for 2 a star hotel. The location in terms of my business meeting were OK. Please note for me it was cheaper to use thier website than booking live directly or expedia, etc., e.g., I called the hotel directly and the man that answered said he did not have any King non smoking rooms available, only Queen and at a higher price than their own website. Booked via their website a King non smoke and it was less $$. 
+Requested a king non smoke upstairs room, no problem. The problem was two fold, first of all: the noise, not sure if it was bad timing/luck or just loud inconsiderate guests. They even gave me a rear of the property room #231, far and away from the busy Del Mar Blvd. Thought to myself " upstairs, rear of property = good nights sleep." It was anything but, until almost midnight, people were out on the 2nd floor walkway talking to others via their cell phone and discovered we were all invited to their conversations, even the paper thin walls were in need of some good R rated insulation. Then it gets better. Started to notice the cigarette smoke begin to waft through the air and under my closed door. Why bother asking or having a smoke free room when you get to share cigarettes with the...I only took this place after reading the fairly good reviews. The price is right for 2 a star hotel. The location in terms of my business meeting were OK. Please note for me it was cheaper to use thier website than booking live directly or expedia, etc., e.g., I called the hotel directly and the man that answered said he did not have any King non smoking rooms available, only Queen and at a higher price than their own website. Booked via their website a King non smoke and it was less $$. Requested a king non smoke upstairs room, no problem. The problem was two fold, first of all: the noise, not sure if it was bad timing/luck or just loud inconsiderate guests. They even gave me a rear of the property room #231, far and away from the busy Del Mar Blvd. Thought to myself " upstairs, rear of property = good nights sleep." It was anything but, until almost midnight, people were out on the 2nd floor walkway talking to others via their cell phone and discovered we were all invited to their conversations, even the paper thin walls were in need of some good R rated insulation. Then it gets better. Started to notice the cigarette smoke begin to waft through the air and under my closed door. Why bother asking or having a smoke free room when you get to share cigarettes with the other outside-your-room guests? The room itself looks like it has been upgraded albeit pretty shabby workmanship, it reminded of some of places I have stayed at in Mexico where I just needed a bed and shower because I was fishing. Honest to God... there was half of the shower head in the shower and did not notice until I went for my 6AM shower. Had to be rather creative to get wet and rinse off. I truly also hope that it was my imagination adn felt something in the middle of the night on my neck.. not sure. In all fairness, for the price and perhaps as mentioned maybe my bad luck/timing, I may give them one more chance, but their are other options. On a final note.. the check in gal said hot coffee and pastries would be availble at 6AM, was there at 6:45AM and still nothing. Checked out and headed to Starbucks.. kind of the final insult.   : (More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r118806320-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>118806320</t>
+  </si>
+  <si>
+    <t>10/01/2011</t>
+  </si>
+  <si>
+    <t>Best price and good location</t>
+  </si>
+  <si>
+    <t>This is a typical family run motel located in a Chinese community outside LA, not far from good eats. It's not far from I-10 exit but not noisey at all. I booked directly and paid $55 a nite. The owner/staff was very friendly, the over all experience was good, except one I thing that I noticed, the AC intake area was really dusty, maybe they forgot to clean it. The room even has a sm kitchen with stove and frig, no bathtub (no problem to me). The bed is fine and I slept all the the way. The breakfast was really simple, just coffee, OJ and some danish, I didn't expect anything more. For a simple place to sleep with good value, this is the one.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>This is a typical family run motel located in a Chinese community outside LA, not far from good eats. It's not far from I-10 exit but not noisey at all. I booked directly and paid $55 a nite. The owner/staff was very friendly, the over all experience was good, except one I thing that I noticed, the AC intake area was really dusty, maybe they forgot to clean it. The room even has a sm kitchen with stove and frig, no bathtub (no problem to me). The bed is fine and I slept all the the way. The breakfast was really simple, just coffee, OJ and some danish, I didn't expect anything more. For a simple place to sleep with good value, this is the one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r44669026-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>44669026</t>
+  </si>
+  <si>
+    <t>09/26/2009</t>
+  </si>
+  <si>
+    <t>Best value for money if you are looking just for a place to stay</t>
+  </si>
+  <si>
+    <t>I have recently stayed at this hotel for almost 4 months on a weekly rate. The staff at this hotel is quite friendly and will extend every possible help that they can. The rooms are clean and nice - for my longer stays they are serviced twie a week. The neighbouhood has lots of places to eat within a 10-15 minuteswalking distance. There are a couple of places where you can get your laundry done within a 10 minutes. walkable distance. . I am travelling back again to that area and staying there againMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I have recently stayed at this hotel for almost 4 months on a weekly rate. The staff at this hotel is quite friendly and will extend every possible help that they can. The rooms are clean and nice - for my longer stays they are serviced twie a week. The neighbouhood has lots of places to eat within a 10-15 minuteswalking distance. There are a couple of places where you can get your laundry done within a 10 minutes. walkable distance. . I am travelling back again to that area and staying there againMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1063,1359 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>162</v>
+      </c>
+      <c r="X20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>162</v>
+      </c>
+      <c r="X21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>47352</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>162</v>
+      </c>
+      <c r="X22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_803.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_803.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>macirios</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>richbr0dy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r562812895-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Robert N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r558845302-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>Arvind S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r550925578-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -228,6 +240,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>claudiao264</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r546372153-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -237,6 +252,9 @@
     <t>12/10/2017</t>
   </si>
   <si>
+    <t>eschultz62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r538516880-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -255,6 +273,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Angel C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r445636864-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -276,6 +297,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Eric E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r419654004-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>When I vacation I don't like to spend an excessive amount of money on the hotel. I think it's unnecessary because I don't spend lots of time in a hotel. I spend most of my time sightseeing and exploring the city.This place is perfect for my "don't spend lots of your vacation budget on the hotel" vacations. My room was clean and spacious. An added bonus was a microwave and fridge in my room. These amenities helped me save money on meals because I used them to cook after grocery shopping.The staff was nice and professional.The free breakfast is nothing special at all. But hey, do as I did and cook your own meals in your room.Parking is tight. I had to park a block away in the surrounding neighborhood. However, my car was untouched in the morning. It's a quiet and safe neighborhood.Pick this hotel if you want to save money.More</t>
   </si>
   <si>
+    <t>ChuckBrooks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r384733009-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Deedra007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r322729398-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -337,6 +367,9 @@
   </si>
   <si>
     <t>I was very pleasantly surprised when we arrived to this destination. Check in was fast and easy. The parking lot was clean and secure. At night the parking lot has bright lights and cameras so your car is safe. The room was very big, clean and smelled fresh.We did find  thick dust on the top of the closet area and the fridge. The bathroom had a walk-in shower, nice size sink and a window.  The kitchen area you could tell had been used several times, but was also clean and had a full size fridge, window, microwave and small 2 cooktops. We didn't need to use that. You can see it has been updated. We will stay here again.More</t>
+  </si>
+  <si>
+    <t>Andrew_Goddard</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r299912906-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
@@ -368,6 +401,9 @@
 The staff, though pleasant  enough, were difficult to understand, and appeared from a back room (presumably their dwelling was attached to the check in desk?)...We have regularly stayed at other hotels within the Choice Group, so presumed that this hotel would follow the trend of a reasonably priced, good quality business. We couldn't have been more wrong. Whilst the bed was clean and comfortable, the rest of our experience was soured by a dirty bathroom that smelled awful, most of the flat surfaces were also dirty, and in very poor repair. The main blinds in the bedroom were ok, but those in the bathroom and walk in wardrobe were broken and wouldn't close! I attempted to close the wardrobe room's blind, and was instantly covered in a greasy dust, that would have marked my clothing if it had come into contact. The bathroom window was open when we arrived, and closing it resulted in the whole unit becoming detached, and falling out of its rail, requiring it be caught before falling to the floor!The "Continental Breakfast" option was limited to a cardboard box situated in the hotel's check in desk / office a very small cubicle (3' x 6' or so) and a bottle of orange juice placed next to some plastic mugs on the side, with nowhere provided to eat or drink any of it other than your car (when leaving) or taken back to your room!The staff, though pleasant  enough, were difficult to understand, and appeared from a back room (presumably their dwelling was attached to the check in desk?) for only long enough to carry out the task required at the time! The room's electrical fuse board had been painted (presumably each time the walls had been redecorated?) and the MCB's would be unusable in the event of an electrical problem!I don't consider myself to be a snob, but the photographs taken to advertise this property were taken very carefully so as to conceal the nature of the surrounding buildings, which were in very poor repair, in a run down part of the area! Travellers from afar, with no knowledge of this area would be led to believe the building was much better situated than it was!I have taken photographs to document our concerns, and was considering taking matters further upon our return to the UK. This particular hotel does not reflect the usual high standards we have come to expect from this group, and if visiting this part of L.A. Again, we would look elsewhere. More</t>
   </si>
   <si>
+    <t>hamed g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r297332503-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -386,6 +422,9 @@
     <t>We just moved here recently from DC and were staying here while we were looking for  an apartment.We were really impressed how cleaned the room was. The room had a microwave and a mini fridge. That was a big plus for us because we were on a budget and didn't want to keep eating out. I believe the motel is managed by the owners and is a family operated motel. Anyways, the front desk staff were really nice and accommodating. We were looking for a motel in Pasadena area however for the same price and only 10-15 mins south, you can get much more for your money. We were glad we stayed here.If we have friends or family in town looking for place to stay, we will definitely recommend this place.More</t>
   </si>
   <si>
+    <t>Muskrat40r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r208124750-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
     <t>Friday, May 30th 2014, room 218, air conditioner is not cooling, refrigerator is not working, no lights around bed. Not a very good evening. Rather uncomfortable. Mattress has indentation in middle, may be years old, too soft for me. I won't return. Other hotels/motels offer better value, operating appliances at comparable price.</t>
   </si>
   <si>
+    <t>Theo H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r205696310-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -422,6 +464,9 @@
     <t>Booked this motel through Priceline and didn't which one I actually booked until I paid for it.  It was only $51 for a Friday night's stay, which is a very good deal.  When I got to the motel, it was late and I had to wait for someone to attend to me.  The room was spacious, but it was old.  There was a sleeper sofa in the corner but the dresser was blocking it, so you couldn't really open the bed at all.  The blinds was dirty, the string and the rod needed to open and close the blinds were missing.There are always people talking outside.They claim to provide breakfast, but it was just a pot of coffee and some bearclaws or danish from Costco.  Overall, if you're just looking for a bargain room for the night, this is the place.More</t>
   </si>
   <si>
+    <t>Eml211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r202526054-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -440,6 +485,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>D B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r177323537-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -461,6 +509,9 @@
     <t>The owner is very friendly but never admits that they have a wifi problem. Its always working as per him but seldom does, as I have had to stay here several times. Its noisy at night as people talk on their cell phones at night and smoke in the outside corridor. The sheets on the bed do not fit so by midnight you are jumping around to avoid the filthy matress due to the bedcover getting crumpled up on one side. They have a big kitchen area in the room but housekeeping does not clean it. I do not think they ever clean the filters on their loud A/Cs and your allergys can really flare up after spending time in the room with the A/C on. The room carpet and chairs are stained and filthy. Stay here only as a last resort!More</t>
   </si>
   <si>
+    <t>RudyBob B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r164709050-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -479,6 +530,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>CathS1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r163683072-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -492,6 +546,9 @@
   </si>
   <si>
     <t>adequate for overnight stay.  check in a bit slow, but room clean, bed linen soft, massive shower with good pressure so that was a pleasant surprise.  wi-fi speed excellent one of the quickest we have experienced. coffee and a pastry in the morning - did the job for us.</t>
+  </si>
+  <si>
+    <t>mtyink</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r120998149-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
@@ -523,6 +580,9 @@
 Requested a king non smoke upstairs room, no problem. The problem was two fold, first of all: the noise, not sure if it was bad timing/luck or just loud inconsiderate guests. They even gave me a rear of the property room #231, far and away from the busy Del Mar Blvd. Thought to myself " upstairs, rear of property = good nights sleep." It was anything but, until almost midnight, people were out on the 2nd floor walkway talking to others via their cell phone and discovered we were all invited to their conversations, even the paper thin walls were in need of some good R rated insulation. Then it gets better. Started to notice the cigarette smoke begin to waft through the air and under my closed door. Why bother asking or having a smoke free room when you get to share cigarettes with the...I only took this place after reading the fairly good reviews. The price is right for 2 a star hotel. The location in terms of my business meeting were OK. Please note for me it was cheaper to use thier website than booking live directly or expedia, etc., e.g., I called the hotel directly and the man that answered said he did not have any King non smoking rooms available, only Queen and at a higher price than their own website. Booked via their website a King non smoke and it was less $$. Requested a king non smoke upstairs room, no problem. The problem was two fold, first of all: the noise, not sure if it was bad timing/luck or just loud inconsiderate guests. They even gave me a rear of the property room #231, far and away from the busy Del Mar Blvd. Thought to myself " upstairs, rear of property = good nights sleep." It was anything but, until almost midnight, people were out on the 2nd floor walkway talking to others via their cell phone and discovered we were all invited to their conversations, even the paper thin walls were in need of some good R rated insulation. Then it gets better. Started to notice the cigarette smoke begin to waft through the air and under my closed door. Why bother asking or having a smoke free room when you get to share cigarettes with the other outside-your-room guests? The room itself looks like it has been upgraded albeit pretty shabby workmanship, it reminded of some of places I have stayed at in Mexico where I just needed a bed and shower because I was fishing. Honest to God... there was half of the shower head in the shower and did not notice until I went for my 6AM shower. Had to be rather creative to get wet and rinse off. I truly also hope that it was my imagination adn felt something in the middle of the night on my neck.. not sure. In all fairness, for the price and perhaps as mentioned maybe my bad luck/timing, I may give them one more chance, but their are other options. On a final note.. the check in gal said hot coffee and pastries would be availble at 6AM, was there at 6:45AM and still nothing. Checked out and headed to Starbucks.. kind of the final insult.   : (More</t>
   </si>
   <si>
+    <t>ken240</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r118806320-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -542,6 +602,9 @@
   </si>
   <si>
     <t>This is a typical family run motel located in a Chinese community outside LA, not far from good eats. It's not far from I-10 exit but not noisey at all. I booked directly and paid $55 a nite. The owner/staff was very friendly, the over all experience was good, except one I thing that I noticed, the AC intake area was really dusty, maybe they forgot to clean it. The room even has a sm kitchen with stove and frig, no bathtub (no problem to me). The bed is fine and I slept all the the way. The breakfast was really simple, just coffee, OJ and some danish, I didn't expect anything more. For a simple place to sleep with good value, this is the one.More</t>
+  </si>
+  <si>
+    <t>bcsurti</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d268604-r44669026-Travelodge_by_Wyndham_Rosemead-Rosemead_California.html</t>
@@ -1067,41 +1130,45 @@
       <c r="A2" t="n">
         <v>47352</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1125,35 +1192,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>47352</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1161,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1185,36 +1256,37 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>47352</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1222,10 +1294,10 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1246,51 +1318,52 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>47352</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1314,48 +1387,52 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>47352</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1379,50 +1456,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>47352</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1446,50 +1527,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>47352</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1509,50 +1594,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>47352</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1566,50 +1655,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>47352</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1629,50 +1722,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>47352</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1690,50 +1787,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>47352</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1747,50 +1848,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>47352</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1804,41 +1909,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>47352</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -1867,50 +1976,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>47352</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1934,50 +2047,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>47352</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2001,50 +2118,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>47352</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2068,50 +2189,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>47352</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2135,50 +2260,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>47352</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2200,50 +2329,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>47352</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2265,56 +2398,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>47352</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2336,56 +2473,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>47352</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2407,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="X22" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
